--- a/data/publication_summary.xlsx
+++ b/data/publication_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26220" yWindow="0" windowWidth="25060" windowHeight="17080" tabRatio="500"/>
+    <workbookView xWindow="24680" yWindow="0" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>Reference</t>
   </si>
@@ -129,24 +129,6 @@
     <t>LA</t>
   </si>
   <si>
-    <t>48 can't be same reference since years &gt;2006!</t>
-  </si>
-  <si>
-    <t>Was this study published in 2008 or 2006?</t>
-  </si>
-  <si>
-    <t>data was duplicated (ref 2)</t>
-  </si>
-  <si>
-    <t>data was duplicated (ref 52)</t>
-  </si>
-  <si>
-    <t>reference #32?</t>
-  </si>
-  <si>
-    <t>reference #33?</t>
-  </si>
-  <si>
     <t>Padgett and Purvis. (2005a)</t>
   </si>
   <si>
@@ -165,45 +147,24 @@
     <t>Delaney, Sikora, and Delaney (2013b)</t>
   </si>
   <si>
-    <t>Delaney, Sikora, and Delaney (2013c)</t>
-  </si>
-  <si>
     <t>Douglas et al., "Fungicides at NFREC," (2008)</t>
   </si>
   <si>
     <t>Douglas et al., "Topguard at NFREC," (2008)</t>
   </si>
   <si>
-    <t>Kemerait, Josh, and Sconyers (2005)</t>
-  </si>
-  <si>
     <t>Kemerait et al., "Attapulgus Trial 3," (2006)</t>
   </si>
   <si>
-    <t>Kemerait, Sconyers, and Jost,  (2006)</t>
-  </si>
-  <si>
     <t>Kemerait et al., "Attapulgus Valent," (2006)</t>
   </si>
   <si>
     <t>Kemerait, Sconyers, and Mills (2006)</t>
   </si>
   <si>
-    <t>Lawrence, Delaney, and Sikora et al. (2006)</t>
-  </si>
-  <si>
     <t>Lawrence et al., "Absolute," (2006)</t>
   </si>
   <si>
-    <t>Lawrence et al., "Punch," (2006)</t>
-  </si>
-  <si>
-    <t>Lawrence, Delaney, and Sikora et al. (2007a)</t>
-  </si>
-  <si>
-    <t>Lawrence, Delaney, and Sikora et al. (2007b)</t>
-  </si>
-  <si>
     <t>Lawrence et al., "LEM17," (2007)</t>
   </si>
   <si>
@@ -262,13 +223,37 @@
   </si>
   <si>
     <t>Mueller, Miles, and Hartman (2008)</t>
+  </si>
+  <si>
+    <t>ReferenceNumb</t>
+  </si>
+  <si>
+    <t>Delaney, Sikora, and Delaney (2013a)</t>
+  </si>
+  <si>
+    <t>Kemerait, Jost, and Sconyers (2005)</t>
+  </si>
+  <si>
+    <t>Kemerait, Sconyers, and Jost  (2006)</t>
+  </si>
+  <si>
+    <t>Lawrence et al., "Selected fungicides," (2007)</t>
+  </si>
+  <si>
+    <t>Lawrence et al., "Absolute, Folicur and Stratego,"(2007)</t>
+  </si>
+  <si>
+    <t>Lawrence et al., "Punch 2005," (2006)</t>
+  </si>
+  <si>
+    <t>Lawrence et al., "Punch and Charisma 2006," (2006)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,19 +284,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,7 +307,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -351,21 +335,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -379,6 +374,11 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -392,6 +392,11 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,8 +728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -734,7 +742,7 @@
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -754,6 +762,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -771,7 +782,7 @@
       <c r="E2" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>12</v>
       </c>
     </row>
@@ -791,7 +802,7 @@
       <c r="E3" s="1">
         <v>7</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>11</v>
       </c>
     </row>
@@ -811,7 +822,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>13</v>
       </c>
     </row>
@@ -831,7 +842,7 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>14</v>
       </c>
     </row>
@@ -851,7 +862,7 @@
       <c r="E6" s="1">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>44</v>
       </c>
     </row>
@@ -871,7 +882,7 @@
       <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>34</v>
       </c>
     </row>
@@ -891,79 +902,79 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2013</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2013</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2013</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -971,28 +982,28 @@
       <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="F12" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3">
-        <v>24</v>
+      <c r="F12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1011,7 +1022,7 @@
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1031,73 +1042,73 @@
       <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2013</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1109,78 +1120,75 @@
         <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1">
-      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
         <v>2006</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="4">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5">
         <v>47</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="4" customFormat="1">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
         <v>2006</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="5">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1194,94 +1202,102 @@
       <c r="E23" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
         <v>2006</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4">
         <v>2006</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5">
+        <v>51</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
         <v>5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
         <v>2006</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="4" customFormat="1">
-      <c r="A27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2006</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="5">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6">
-        <v>51</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="G27"/>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>56</v>
+      <c r="A28" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1295,13 +1311,13 @@
       <c r="E28" s="1">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>57</v>
+      <c r="A29" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1315,33 +1331,33 @@
       <c r="E29" s="1">
         <v>6</v>
       </c>
-      <c r="F29" s="3">
-        <v>21</v>
+      <c r="F29" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>58</v>
+      <c r="A30" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>6</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>59</v>
+      <c r="A31" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1353,96 +1369,97 @@
         <v>12</v>
       </c>
       <c r="E31" s="1">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>60</v>
+      <c r="A32" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="4" customFormat="1">
-      <c r="A33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="5">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
         <v>2007</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="5">
         <v>53</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>64</v>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1456,76 +1473,77 @@
       <c r="E36" s="1">
         <v>13</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>16</v>
       </c>
+      <c r="G36"/>
+      <c r="H36"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>26</v>
+      <c r="A37" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>27</v>
+      <c r="A38" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="4" customFormat="1">
-      <c r="A39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
         <v>2006</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="5">
-        <v>15</v>
-      </c>
-      <c r="F39" s="6">
-        <v>43</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2">
+        <v>39</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1539,13 +1557,13 @@
       <c r="E40" s="1">
         <v>10</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1559,57 +1577,55 @@
       <c r="E41" s="1">
         <v>6</v>
       </c>
-      <c r="F41" s="3">
-        <v>63</v>
+      <c r="F41" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E42" s="1">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2007</v>
-      </c>
-      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="5">
-        <v>9</v>
-      </c>
-      <c r="F43" s="6">
-        <v>9</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="E43" s="1">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2">
+        <v>37</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1621,75 +1637,79 @@
         <v>20</v>
       </c>
       <c r="E44" s="1">
-        <v>23</v>
-      </c>
-      <c r="F44" s="3">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="1">
-        <v>11</v>
-      </c>
-      <c r="F45" s="3">
-        <v>39</v>
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2007</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5">
+        <v>9</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4">
         <v>2006</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="1">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4">
         <v>15</v>
       </c>
-      <c r="F47" s="3">
-        <v>37</v>
-      </c>
+      <c r="F47" s="5">
+        <v>43</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1701,36 +1721,36 @@
         <v>20</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1">
-      <c r="A49" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="5">
+        <v>23</v>
+      </c>
+      <c r="F48" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4">
         <v>2012</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>7</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>25</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -1744,13 +1764,13 @@
       <c r="E50" s="1">
         <v>13</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -1764,13 +1784,13 @@
       <c r="E51" s="1">
         <v>15</v>
       </c>
-      <c r="F51" s="3">
-        <v>72</v>
+      <c r="F51" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -1782,15 +1802,15 @@
         <v>35</v>
       </c>
       <c r="E52" s="1">
-        <v>15</v>
-      </c>
-      <c r="F52" s="3">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="F52" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -1804,33 +1824,30 @@
       <c r="E53" s="1">
         <v>15</v>
       </c>
-      <c r="F53" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1">
-      <c r="A54" s="4" t="s">
+      <c r="F53" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4">
         <v>2012</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="5">
-        <v>13</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54" s="4">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5">
         <v>35</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
@@ -1848,157 +1865,162 @@
       <c r="E55" s="1">
         <v>23</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="4" customFormat="1">
-      <c r="A56" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2013</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="5">
-        <v>4</v>
-      </c>
-      <c r="F56" s="4">
-        <v>32</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2013</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="5">
-        <v>4</v>
-      </c>
-      <c r="F57" s="4">
+    <row r="56" spans="1:8" s="3" customFormat="1">
+      <c r="A56" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>12</v>
+      </c>
+      <c r="F56" s="2">
+        <v>74</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>12</v>
+      </c>
+      <c r="F57" s="2">
+        <v>23</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="1">
-        <v>12</v>
-      </c>
-      <c r="F58" s="3">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="F58" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>33</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
         <v>32</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="1">
-        <v>12</v>
-      </c>
-      <c r="F60" s="3">
-        <v>74</v>
-      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="1">
-        <v>7</v>
-      </c>
-      <c r="F61" s="3">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="F61" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="1">
-        <v>13</v>
-      </c>
-      <c r="F62" s="3">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="F62" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H62">
+    <sortCondition ref="A2:A62"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/publication_summary.xlsx
+++ b/data/publication_summary.xlsx
@@ -307,8 +307,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,7 +364,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -379,6 +383,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -397,6 +403,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -729,10 +737,10 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -746,7 +754,7 @@
     <col min="8" max="8" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,389 +774,405 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
         <v>2010</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
         <v>2010</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F8" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
         <v>2011</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F9" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
         <v>2011</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F10" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>31</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="F15" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8</v>
-      </c>
       <c r="F16" s="2">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2">
-        <v>65</v>
-      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2">
-        <v>66</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1157,18 +1181,19 @@
         <v>2006</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E21" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -1180,410 +1205,411 @@
         <v>25</v>
       </c>
       <c r="E22" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F22" s="5">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="A24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
         <v>2006</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="5">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="F24" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="A25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
         <v>2006</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7</v>
-      </c>
-      <c r="F25" s="5">
-        <v>51</v>
-      </c>
-      <c r="G25" s="5"/>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>18</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="A26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
         <v>2006</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
-      <c r="F26" s="5">
-        <v>46</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1">
-      <c r="A27" t="s">
-        <v>45</v>
+      <c r="A27" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F27" s="2">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2007</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
         <v>6</v>
       </c>
-      <c r="F29" s="2">
-        <v>4</v>
-      </c>
+      <c r="F29" s="5">
+        <v>53</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6" t="s">
-        <v>27</v>
+      <c r="A33" t="s">
+        <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
-        <v>47</v>
+      <c r="A34" t="s">
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2007</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="F35" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
         <v>6</v>
       </c>
-      <c r="F35" s="5">
-        <v>53</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1">
-      <c r="A36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1">
-        <v>13</v>
-      </c>
       <c r="F36" s="2">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6" t="s">
-        <v>49</v>
+      <c r="A37" t="s">
+        <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6" t="s">
-        <v>50</v>
+      <c r="A38" t="s">
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2007</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9</v>
+      </c>
+      <c r="F40" s="5">
+        <v>9</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4">
         <v>2006</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6</v>
-      </c>
-      <c r="F41" s="2">
-        <v>38</v>
-      </c>
+      <c r="D41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4">
+        <v>15</v>
+      </c>
+      <c r="F41" s="5">
+        <v>43</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1595,289 +1621,292 @@
         <v>20</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="1">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2">
-        <v>37</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43"/>
+      <c r="E43" s="4">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5">
+        <v>25</v>
+      </c>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2007</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="1">
         <v>9</v>
       </c>
-      <c r="F46" s="5">
-        <v>9</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="3"/>
+      <c r="F46" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="4">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5">
+        <v>35</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
         <v>2006</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="4">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5">
-        <v>43</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="D49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="1">
         <v>23</v>
       </c>
-      <c r="F48" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1">
-      <c r="A49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="4">
-        <v>7</v>
-      </c>
-      <c r="F49" s="5">
-        <v>25</v>
-      </c>
-      <c r="G49" s="5"/>
+      <c r="F49" s="2">
+        <v>60</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="1">
-        <v>9</v>
-      </c>
-      <c r="F52" s="2">
-        <v>54</v>
-      </c>
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>33</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="1">
-        <v>15</v>
-      </c>
-      <c r="F53" s="2">
-        <v>72</v>
-      </c>
+      <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3">
+        <v>32</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" s="3" customFormat="1">
-      <c r="A54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="4">
-        <v>12</v>
-      </c>
-      <c r="F54" s="5">
-        <v>35</v>
-      </c>
-      <c r="G54" s="5"/>
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2">
+        <v>23</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F55" s="2">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
@@ -1886,59 +1915,61 @@
         <v>12</v>
       </c>
       <c r="F56" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2">
-        <v>7</v>
-      </c>
+      <c r="A58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>29</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4">
         <v>2013</v>
@@ -1947,20 +1978,20 @@
         <v>12</v>
       </c>
       <c r="E59" s="4">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="F59" s="5">
+        <v>26</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4">
         <v>2013</v>
@@ -1969,57 +2000,57 @@
         <v>12</v>
       </c>
       <c r="E60" s="4">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>28</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F61" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H62">
-    <sortCondition ref="A2:A62"/>
+    <sortCondition ref="B2:B62"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/publication_summary.xlsx
+++ b/data/publication_summary.xlsx
@@ -216,12 +216,6 @@
     <t>Sikora, Delane, and Delaney (2013b)</t>
   </si>
   <si>
-    <t>Sikora, Lawrence, and Gutierrez-Estrada et al., "Ballad," (2005)</t>
-  </si>
-  <si>
-    <t>Sikora, Lawrence, and Gutierrez-Estrada et al., "Asian soybean rust," (2005)</t>
-  </si>
-  <si>
     <t>Mueller, Miles, and Hartman (2008)</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>Lawrence et al., "Punch and Charisma 2006," (2006)</t>
+  </si>
+  <si>
+    <t>Sikora, et al., "Asian soybean rust," (2005)</t>
+  </si>
+  <si>
+    <t>Sikora,et al., "Ballad," (2005)</t>
   </si>
 </sst>
 </file>
@@ -307,8 +307,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -364,7 +430,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -385,6 +451,39 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -405,6 +504,39 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -737,20 +869,21 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A55:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,408 +904,451 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>74</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>13</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>14</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2">
-        <v>31</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
         <v>2008</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F19" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
         <v>2008</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F20" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2006</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5">
-        <v>47</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2006</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2006</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5">
-        <v>50</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1181,19 +1357,21 @@
         <v>2006</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5">
-        <v>51</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -1205,37 +1383,41 @@
         <v>25</v>
       </c>
       <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
-      <c r="A23" t="s">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2">
-        <v>59</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1244,204 +1426,231 @@
         <v>2006</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
-      <c r="A25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="F26" s="5">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4">
         <v>2006</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>18</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1">
-        <v>9</v>
-      </c>
-      <c r="F27" s="2">
-        <v>22</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>51</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
         <v>2013</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
         <v>5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2007</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5">
-        <v>53</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4">
         <v>2007</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1">
-        <v>7</v>
-      </c>
-      <c r="F31" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1">
-        <v>7</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3</v>
-      </c>
+      <c r="D32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>57</v>
+      <c r="A33" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F33" s="2">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>55</v>
+      <c r="A34" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1450,18 +1659,21 @@
         <v>2006</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
       </c>
       <c r="F34" s="2">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>60</v>
+      <c r="A35" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1470,146 +1682,161 @@
         <v>2006</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1">
-      <c r="A36" t="s">
-        <v>56</v>
+      <c r="A36" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2">
-        <v>63</v>
-      </c>
-      <c r="G36"/>
+        <v>16</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>59</v>
+      <c r="A37" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>58</v>
+      <c r="A38" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" s="2">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39"/>
+        <v>39</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
       <c r="H39"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2007</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="4">
-        <v>9</v>
-      </c>
-      <c r="F40" s="5">
-        <v>9</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="3"/>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
         <v>2006</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="4">
-        <v>15</v>
-      </c>
-      <c r="F41" s="5">
-        <v>43</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1621,292 +1848,326 @@
         <v>20</v>
       </c>
       <c r="E42" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F42" s="2">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1">
-      <c r="A43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="4">
-        <v>7</v>
-      </c>
-      <c r="F43" s="5">
-        <v>25</v>
-      </c>
-      <c r="G43" s="5"/>
+      <c r="E43" s="1">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2">
+        <v>37</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F44" s="2">
-        <v>69</v>
+        <v>40</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2007</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2006</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4">
         <v>15</v>
       </c>
-      <c r="F45" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="1">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="F47" s="5">
+        <v>43</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>23</v>
+      </c>
+      <c r="F48" s="2">
         <v>36</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="1">
-        <v>15</v>
-      </c>
-      <c r="F47" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1">
+      <c r="A49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4">
         <v>2012</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="4">
-        <v>12</v>
-      </c>
-      <c r="F48" s="5">
-        <v>35</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="1">
-        <v>23</v>
-      </c>
-      <c r="F49" s="2">
-        <v>60</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49"/>
+      <c r="D49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7</v>
+      </c>
+      <c r="F49" s="5">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="4">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>33</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="4">
-        <v>4</v>
-      </c>
-      <c r="F53" s="3">
-        <v>32</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="1">
+        <v>15</v>
+      </c>
+      <c r="F53" s="2">
+        <v>72</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:8" s="3" customFormat="1">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2">
-        <v>23</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54"/>
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2012</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="4">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5">
+        <v>35</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F55" s="2">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
@@ -1915,61 +2176,66 @@
         <v>12</v>
       </c>
       <c r="F56" s="2">
-        <v>34</v>
-      </c>
-      <c r="G56"/>
+        <v>74</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2">
-        <v>27</v>
-      </c>
-      <c r="G57"/>
+        <v>23</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
       <c r="H57"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2013</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-      <c r="F58" s="5">
-        <v>29</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C59" s="4">
         <v>2013</v>
@@ -1978,20 +2244,22 @@
         <v>12</v>
       </c>
       <c r="E59" s="4">
-        <v>3</v>
-      </c>
-      <c r="F59" s="5">
-        <v>26</v>
-      </c>
-      <c r="G59" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>33</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" s="4">
         <v>2013</v>
@@ -2000,57 +2268,65 @@
         <v>12</v>
       </c>
       <c r="E60" s="4">
-        <v>2</v>
-      </c>
-      <c r="F60" s="5">
-        <v>28</v>
-      </c>
-      <c r="G60" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>32</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="2">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H62">
-    <sortCondition ref="B2:B62"/>
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/publication_summary.xlsx
+++ b/data/publication_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="0" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A55:E62"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -883,11 +883,10 @@
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +906,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -926,11 +925,8 @@
       <c r="F2" s="2">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -949,11 +945,8 @@
       <c r="F3" s="2">
         <v>11</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -972,11 +965,8 @@
       <c r="F4" s="2">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -995,11 +985,8 @@
       <c r="F5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1018,11 +1005,8 @@
       <c r="F6" s="2">
         <v>44</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1041,11 +1025,8 @@
       <c r="F7" s="2">
         <v>34</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1064,11 +1045,8 @@
       <c r="F8" s="2">
         <v>27</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1087,11 +1065,8 @@
       <c r="F9" s="5">
         <v>29</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1110,11 +1085,8 @@
       <c r="F10" s="5">
         <v>26</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1133,11 +1105,8 @@
       <c r="F11" s="5">
         <v>28</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1156,11 +1125,8 @@
       <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1179,12 +1145,9 @@
       <c r="F13" s="2">
         <v>8</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1203,11 +1166,8 @@
       <c r="F14" s="2">
         <v>17</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1226,11 +1186,8 @@
       <c r="F15" s="2">
         <v>24</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1249,11 +1206,8 @@
       <c r="F16" s="2">
         <v>31</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -1272,12 +1226,9 @@
       <c r="F17" s="5">
         <v>30</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1296,11 +1247,8 @@
       <c r="F18" s="2">
         <v>67</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1319,11 +1267,8 @@
       <c r="F19" s="2">
         <v>65</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1342,11 +1287,8 @@
       <c r="F20" s="2">
         <v>66</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1365,11 +1307,8 @@
       <c r="F21" s="5">
         <v>47</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1388,11 +1327,8 @@
       <c r="F22" s="5">
         <v>49</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1411,11 +1347,8 @@
       <c r="F23" s="5">
         <v>46</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1434,11 +1367,8 @@
       <c r="F24" s="2">
         <v>59</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1457,12 +1387,9 @@
       <c r="F25" s="2">
         <v>71</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
@@ -1481,12 +1408,9 @@
       <c r="F26" s="5">
         <v>50</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -1505,11 +1429,8 @@
       <c r="F27" s="5">
         <v>51</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1528,11 +1449,8 @@
       <c r="F28" s="2">
         <v>22</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -1551,11 +1469,8 @@
       <c r="F29" s="2">
         <v>68</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
         <v>71</v>
       </c>
@@ -1574,11 +1489,8 @@
       <c r="F30" s="2">
         <v>18</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
@@ -1597,11 +1509,8 @@
       <c r="F31" s="2">
         <v>21</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>48</v>
       </c>
@@ -1620,12 +1529,9 @@
       <c r="F32" s="5">
         <v>53</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
@@ -1644,11 +1550,8 @@
       <c r="F33" s="2">
         <v>4</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
@@ -1667,11 +1570,8 @@
       <c r="F34" s="2">
         <v>55</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
         <v>70</v>
       </c>
@@ -1690,11 +1590,8 @@
       <c r="F35" s="2">
         <v>41</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>51</v>
       </c>
@@ -1713,12 +1610,9 @@
       <c r="F36" s="2">
         <v>16</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
         <v>49</v>
       </c>
@@ -1737,11 +1631,8 @@
       <c r="F37" s="2">
         <v>62</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
@@ -1760,11 +1651,8 @@
       <c r="F38" s="2">
         <v>3</v>
       </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1783,12 +1671,9 @@
       <c r="F39" s="2">
         <v>39</v>
       </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1807,11 +1692,8 @@
       <c r="F40" s="2">
         <v>45</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1830,11 +1712,8 @@
       <c r="F41" s="2">
         <v>38</v>
       </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1853,11 +1732,8 @@
       <c r="F42" s="2">
         <v>63</v>
       </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1876,12 +1752,9 @@
       <c r="F43" s="2">
         <v>37</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1900,11 +1773,8 @@
       <c r="F44" s="2">
         <v>40</v>
       </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1923,11 +1793,8 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>53</v>
       </c>
@@ -1946,12 +1813,9 @@
       <c r="F46" s="5">
         <v>9</v>
       </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
@@ -1970,12 +1834,9 @@
       <c r="F47" s="5">
         <v>43</v>
       </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1994,11 +1855,8 @@
       <c r="F48" s="2">
         <v>36</v>
       </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
         <v>61</v>
       </c>
@@ -2017,11 +1875,8 @@
       <c r="F49" s="5">
         <v>25</v>
       </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2040,11 +1895,8 @@
       <c r="F50" s="2">
         <v>69</v>
       </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2063,11 +1915,8 @@
       <c r="F51" s="2">
         <v>73</v>
       </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2086,11 +1935,8 @@
       <c r="F52" s="2">
         <v>54</v>
       </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -2109,11 +1955,8 @@
       <c r="F53" s="2">
         <v>72</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="54" spans="1:7" s="3" customFormat="1">
       <c r="A54" s="3" t="s">
         <v>28</v>
       </c>
@@ -2132,11 +1975,8 @@
       <c r="F54" s="5">
         <v>35</v>
       </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2155,11 +1995,8 @@
       <c r="F55" s="2">
         <v>60</v>
       </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="3" customFormat="1">
+    </row>
+    <row r="56" spans="1:7" s="3" customFormat="1">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2178,12 +2015,9 @@
       <c r="F56" s="2">
         <v>74</v>
       </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" s="3" customFormat="1">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" s="3" customFormat="1">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -2202,12 +2036,9 @@
       <c r="F57" s="2">
         <v>23</v>
       </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2226,11 +2057,8 @@
       <c r="F58" s="2">
         <v>7</v>
       </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -2249,12 +2077,9 @@
       <c r="F59" s="3">
         <v>33</v>
       </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -2273,12 +2098,9 @@
       <c r="F60" s="3">
         <v>32</v>
       </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2297,11 +2119,8 @@
       <c r="F61" s="2">
         <v>70</v>
       </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2319,9 +2138,6 @@
       </c>
       <c r="F62" s="2">
         <v>42</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/publication_summary.xlsx
+++ b/data/publication_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="0" windowWidth="12340" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="9800" yWindow="0" windowWidth="14920" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +499,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -957,21 +960,21 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -999,118 +1002,130 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>52</v>
+      <c r="A2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
+      <c r="A3" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
-        <v>7</v>
+      <c r="F3" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="8">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>72</v>
+      <c r="A4" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="8">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>18</v>
+      <c r="A5" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G5" s="8">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>32</v>
+      <c r="A6" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="8">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>80</v>
@@ -1118,13 +1133,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -1132,113 +1147,112 @@
       <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>79</v>
+      <c r="F7" s="1">
+        <v>12</v>
       </c>
       <c r="G7" s="8">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="8">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2007</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
     <row r="9" spans="1:8" s="2" customFormat="1">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="8">
-        <v>13</v>
+      <c r="A11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="12">
+        <v>28</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
@@ -1246,56 +1260,55 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
         <v>2011</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="8">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8">
-        <v>16</v>
-      </c>
-      <c r="H13"/>
-    </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
@@ -1321,354 +1334,355 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
+      <c r="A15" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="8">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
+      <c r="A16" t="s">
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
-      <c r="G17" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G18" s="8">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18</v>
       </c>
       <c r="G19" s="8">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>79</v>
+      <c r="E20" s="1">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1">
+        <v>13</v>
       </c>
       <c r="G20" s="8">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12</v>
       </c>
       <c r="G21" s="8">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="A22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="8">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1">
-      <c r="A23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2013</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="12">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>80</v>
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="A24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1">
-      <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="A25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="8">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="8">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
         <v>9</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F28" s="1">
         <v>9</v>
       </c>
-      <c r="G25" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1">
-        <v>9</v>
-      </c>
-      <c r="G26" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="9">
-        <v>33</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>77</v>
+      <c r="G28" s="8">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>14</v>
+      <c r="A29" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
         <v>2013</v>
@@ -1677,97 +1691,97 @@
         <v>12</v>
       </c>
       <c r="E29" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G29" s="8">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="3">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3">
-        <v>12</v>
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
       </c>
       <c r="G30" s="8">
-        <v>35</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>54</v>
+      <c r="A31" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8">
+        <v>53</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="1">
-        <v>23</v>
-      </c>
-      <c r="G31" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1">
-        <v>15</v>
-      </c>
-      <c r="G32" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
       <c r="C33" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -1776,12 +1790,12 @@
         <v>6</v>
       </c>
       <c r="G33" s="8">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>57</v>
+      <c r="A34" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1790,21 +1804,21 @@
         <v>2006</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="8">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>58</v>
+      <c r="A35" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1813,51 +1827,51 @@
         <v>2006</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G35" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" s="8">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>75</v>
+      <c r="A37" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>12</v>
@@ -1869,58 +1883,55 @@
         <v>7</v>
       </c>
       <c r="G37" s="8">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2006</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="3">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3">
-        <v>15</v>
+      <c r="A38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
       </c>
       <c r="G38" s="8">
-        <v>43</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
         <v>11</v>
       </c>
-      <c r="C39" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>79</v>
+      <c r="F39" s="1">
+        <v>11</v>
       </c>
       <c r="G39" s="8">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s">
-        <v>80</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H39"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
@@ -1949,134 +1960,127 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
         <v>2006</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5</v>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
       </c>
       <c r="G41" s="8">
-        <v>46</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
         <v>2006</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="3">
-        <v>12</v>
-      </c>
-      <c r="F42" s="3">
-        <v>12</v>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G42" s="8">
-        <v>47</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1">
-      <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
         <v>2006</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3">
-        <v>12</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>79</v>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1">
+        <v>15</v>
       </c>
       <c r="G43" s="8">
-        <v>49</v>
-      </c>
-      <c r="H43" t="s">
-        <v>80</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
         <v>2006</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="3">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>79</v>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
       </c>
       <c r="G44" s="8">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3">
-        <v>2006</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>79</v>
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
       </c>
       <c r="G45" s="8">
-        <v>51</v>
-      </c>
-      <c r="H45" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5" t="s">
-        <v>48</v>
+      <c r="A46" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -2085,45 +2089,46 @@
         <v>2007</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E46" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G46" s="8">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="1">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1">
-        <v>9</v>
+      <c r="A47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3">
+        <v>15</v>
       </c>
       <c r="G47" s="8">
+        <v>43</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2132,39 +2137,39 @@
         <v>2006</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G48" s="8">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="2" customFormat="1">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="8">
         <v>25</v>
-      </c>
-      <c r="E49" s="1">
-        <v>15</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="8">
-        <v>59</v>
       </c>
       <c r="H49" t="s">
         <v>80</v>
@@ -2172,301 +2177,299 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G50" s="8">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
-        <v>49</v>
+      <c r="A51" t="s">
+        <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G51" s="8">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E52" s="1">
-        <v>6</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="F52" s="1">
+        <v>9</v>
       </c>
       <c r="G52" s="8">
-        <v>63</v>
-      </c>
-      <c r="H52" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E53" s="1">
-        <v>18</v>
-      </c>
-      <c r="F53" s="1">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G53" s="8">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1">
-        <v>13</v>
-      </c>
-      <c r="F54" s="1">
-        <v>13</v>
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12</v>
       </c>
       <c r="G54" s="8">
-        <v>66</v>
-      </c>
-      <c r="H54"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E55" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G55" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1">
-      <c r="A56" s="4" t="s">
-        <v>27</v>
+      <c r="A56" t="s">
+        <v>33</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G56" s="8">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H56"/>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E57" s="1">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="F57" s="1">
+        <v>12</v>
       </c>
       <c r="G57" s="8">
-        <v>69</v>
-      </c>
-      <c r="H57" t="s">
-        <v>80</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H57"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G58" s="8">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="H58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" s="1">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="8">
-        <v>71</v>
-      </c>
-      <c r="H59" t="s">
-        <v>80</v>
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="9">
+        <v>33</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="1">
-        <v>15</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="8">
-        <v>72</v>
-      </c>
-      <c r="H60" t="s">
-        <v>80</v>
-      </c>
+      <c r="A60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4</v>
+      </c>
+      <c r="G60" s="9">
+        <v>32</v>
+      </c>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
         <v>2005</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E61" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G61" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
         <v>80</v>
@@ -2474,10 +2477,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
         <v>2006</v>
@@ -2486,18 +2489,18 @@
         <v>12</v>
       </c>
       <c r="E62" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F62" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G62" s="8">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:H62">
-    <sortCondition ref="G2:G62"/>
+    <sortCondition ref="A2:A62"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
